--- a/output/老師個別表.xlsx
+++ b/output/老師個別表.xlsx
@@ -8,32 +8,35 @@
   </bookViews>
   <sheets>
     <sheet name="傅俊翔" sheetId="1" r:id="rId1"/>
-    <sheet name="吳冬羽" sheetId="2" r:id="rId2"/>
-    <sheet name="吳若水" sheetId="3" r:id="rId3"/>
-    <sheet name="常樂" sheetId="4" r:id="rId4"/>
-    <sheet name="張哲銘" sheetId="5" r:id="rId5"/>
-    <sheet name="張孟綺" sheetId="6" r:id="rId6"/>
-    <sheet name="徐昕語" sheetId="7" r:id="rId7"/>
-    <sheet name="林恩宏" sheetId="8" r:id="rId8"/>
-    <sheet name="林祐玄" sheetId="9" r:id="rId9"/>
-    <sheet name="王芃元" sheetId="10" r:id="rId10"/>
-    <sheet name="王逸蓁" sheetId="11" r:id="rId11"/>
-    <sheet name="粘耀璟" sheetId="12" r:id="rId12"/>
-    <sheet name="羅然" sheetId="13" r:id="rId13"/>
-    <sheet name="胡之耀" sheetId="14" r:id="rId14"/>
-    <sheet name="賴聖元" sheetId="15" r:id="rId15"/>
-    <sheet name="鄭伊育" sheetId="16" r:id="rId16"/>
-    <sheet name="陳亮臣" sheetId="17" r:id="rId17"/>
-    <sheet name="陳彥融" sheetId="18" r:id="rId18"/>
-    <sheet name="陳禎" sheetId="19" r:id="rId19"/>
-    <sheet name="顏廷安" sheetId="20" r:id="rId20"/>
+    <sheet name="劉冠緯" sheetId="2" r:id="rId2"/>
+    <sheet name="吳冬羽" sheetId="3" r:id="rId3"/>
+    <sheet name="吳若水" sheetId="4" r:id="rId4"/>
+    <sheet name="常樂" sheetId="5" r:id="rId5"/>
+    <sheet name="張哲銘" sheetId="6" r:id="rId6"/>
+    <sheet name="張孟綺" sheetId="7" r:id="rId7"/>
+    <sheet name="張新岳" sheetId="8" r:id="rId8"/>
+    <sheet name="徐昕語" sheetId="9" r:id="rId9"/>
+    <sheet name="林恩宏" sheetId="10" r:id="rId10"/>
+    <sheet name="林祐玄" sheetId="11" r:id="rId11"/>
+    <sheet name="王芃元" sheetId="12" r:id="rId12"/>
+    <sheet name="王逸蓁" sheetId="13" r:id="rId13"/>
+    <sheet name="粘耀璟" sheetId="14" r:id="rId14"/>
+    <sheet name="羅然" sheetId="15" r:id="rId15"/>
+    <sheet name="胡之耀" sheetId="16" r:id="rId16"/>
+    <sheet name="賴聖元" sheetId="17" r:id="rId17"/>
+    <sheet name="鄭伊育" sheetId="18" r:id="rId18"/>
+    <sheet name="鄭名佑" sheetId="19" r:id="rId19"/>
+    <sheet name="陳亮臣" sheetId="20" r:id="rId20"/>
+    <sheet name="陳彥融" sheetId="21" r:id="rId21"/>
+    <sheet name="陳禎" sheetId="22" r:id="rId22"/>
+    <sheet name="顏廷安" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="104">
   <si>
     <t>老師姓名</t>
   </si>
@@ -71,6 +74,21 @@
     <t>吳恪臣, 廖翊銘, 李品諭, 林品言, 林政諺, 陳泓鍇, 黃鈺程</t>
   </si>
   <si>
+    <t>劉冠緯</t>
+  </si>
+  <si>
+    <t>2024/08/05</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>劉嘉恩</t>
+  </si>
+  <si>
     <t>吳冬羽</t>
   </si>
   <si>
@@ -83,9 +101,21 @@
     <t>20:00</t>
   </si>
   <si>
+    <t>08:00</t>
+  </si>
+  <si>
     <t>邱宇綺</t>
   </si>
   <si>
+    <t>林楷哲</t>
+  </si>
+  <si>
+    <t>陳宇翔</t>
+  </si>
+  <si>
+    <t>黃紳富</t>
+  </si>
+  <si>
     <t>吳若水</t>
   </si>
   <si>
@@ -122,15 +152,9 @@
     <t>18:30</t>
   </si>
   <si>
-    <t>19:00</t>
-  </si>
-  <si>
     <t>20:30</t>
   </si>
   <si>
-    <t>21:00</t>
-  </si>
-  <si>
     <t>陳致祐</t>
   </si>
   <si>
@@ -149,10 +173,16 @@
     <t>林姵岑</t>
   </si>
   <si>
+    <t>張新岳</t>
+  </si>
+  <si>
+    <t>陳冠亦, 陳冠辰, 黃睿心</t>
+  </si>
+  <si>
     <t>徐昕語</t>
   </si>
   <si>
-    <t>2024/08/05</t>
+    <t>2024/08/06</t>
   </si>
   <si>
     <t>13:30</t>
@@ -161,10 +191,13 @@
     <t>14:30</t>
   </si>
   <si>
+    <t>16:00</t>
+  </si>
+  <si>
     <t>15:30</t>
   </si>
   <si>
-    <t>16:00</t>
+    <t>18:00</t>
   </si>
   <si>
     <t>許語恩</t>
@@ -179,7 +212,7 @@
     <t>李品澔</t>
   </si>
   <si>
-    <t>林楷哲</t>
+    <t>周劭儒</t>
   </si>
   <si>
     <t>林祐玄</t>
@@ -215,6 +248,9 @@
     <t>16:45</t>
   </si>
   <si>
+    <t>19:30</t>
+  </si>
+  <si>
     <t>廖宥翔</t>
   </si>
   <si>
@@ -236,12 +272,15 @@
     <t>徐康鈞</t>
   </si>
   <si>
-    <t>周劭儒</t>
-  </si>
-  <si>
     <t>王祐恩</t>
   </si>
   <si>
+    <t>包敘恩</t>
+  </si>
+  <si>
+    <t>朱恩霆</t>
+  </si>
+  <si>
     <t>羅然</t>
   </si>
   <si>
@@ -278,6 +317,12 @@
     <t>鄭伊育</t>
   </si>
   <si>
+    <t>鄭名佑</t>
+  </si>
+  <si>
+    <t>18:40</t>
+  </si>
+  <si>
     <t>陳亮臣</t>
   </si>
   <si>
@@ -293,9 +338,6 @@
     <t>吳睿丞</t>
   </si>
   <si>
-    <t>劉嘉恩</t>
-  </si>
-  <si>
     <t>顏廷安</t>
   </si>
   <si>
@@ -303,6 +345,9 @@
   </si>
   <si>
     <t>朱妙羚</t>
+  </si>
+  <si>
+    <t>邱康齊</t>
   </si>
 </sst>
 </file>
@@ -719,7 +764,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -753,22 +798,91 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2">
-        <v>2.18</v>
-      </c>
-      <c r="G2">
-        <v>545</v>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -777,6 +891,193 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2">
+        <v>2.2</v>
+      </c>
+      <c r="G2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3">
+        <v>1.5</v>
+      </c>
+      <c r="G3">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -809,25 +1110,25 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F2">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="G2">
-        <v>542.5</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -835,7 +1136,332 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8">
+        <v>2.5</v>
+      </c>
+      <c r="G8">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9">
+        <v>2.5</v>
+      </c>
+      <c r="G9">
+        <v>625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -868,42 +1494,42 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G2">
-        <v>500</v>
+        <v>625</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="F3">
         <v>2.5</v>
@@ -914,19 +1540,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="F4">
         <v>2.5</v>
@@ -937,240 +1563,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-      <c r="G5">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>500</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3">
-        <v>2.5</v>
-      </c>
-      <c r="G3">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4">
-        <v>2.5</v>
-      </c>
-      <c r="G4">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1182,131 +1575,13 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F5">
         <v>2.5</v>
       </c>
       <c r="G5">
         <v>625</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2">
-        <v>1125</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -1347,25 +1622,25 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F2">
         <v>2.5</v>
       </c>
       <c r="G2">
-        <v>875</v>
+        <v>1125</v>
       </c>
     </row>
   </sheetData>
@@ -1375,7 +1650,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1406,47 +1681,24 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
         <v>500</v>
       </c>
     </row>
@@ -1457,7 +1709,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1488,70 +1740,24 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
         <v>500</v>
       </c>
     </row>
@@ -1608,10 +1814,10 @@
         <v>16</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>625</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -1620,6 +1826,65 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2">
+        <v>875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1652,48 +1917,48 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>625</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="F3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>625</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -1701,9 +1966,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1734,25 +1999,235 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
         <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4">
+        <v>625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2">
+        <v>625</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1760,22 +2235,68 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>-9.5</v>
+      </c>
+      <c r="G3">
+        <v>-2375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>500</v>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>2.5</v>
+      </c>
+      <c r="G4">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+      <c r="G5">
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -1816,19 +2337,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -1839,25 +2360,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -1898,19 +2419,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -1921,25 +2442,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -1948,6 +2469,111 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1980,25 +2606,25 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F2">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G2">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -2006,9 +2632,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2039,48 +2665,25 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3">
-        <v>1.5</v>
-      </c>
-      <c r="G3">
-        <v>375</v>
+        <v>875</v>
       </c>
     </row>
   </sheetData>
@@ -2088,9 +2691,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2121,129 +2724,70 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>625</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3">
+        <v>1.5</v>
+      </c>
+      <c r="G3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
         <v>48</v>
       </c>
-      <c r="F3">
-        <v>2.5</v>
-      </c>
-      <c r="G3">
-        <v>625</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
         <v>53</v>
       </c>
-      <c r="E2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E4" t="s">
         <v>54</v>
       </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
         <v>500</v>
       </c>
     </row>

--- a/output/老師個別表.xlsx
+++ b/output/老師個別表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/4r/c71wnnys3b1b4p4w0tl_z9q40000gn/T/tmp-16689-rXZIo3gmYYfP/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C113112-4902-7745-94AD-2A2387E1B000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="18960" firstSheet="23" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="何宥嶙" sheetId="1" r:id="rId1"/>
@@ -18,31 +24,47 @@
     <sheet name="張孟綺" sheetId="9" r:id="rId9"/>
     <sheet name="張新岳" sheetId="10" r:id="rId10"/>
     <sheet name="徐昕語" sheetId="11" r:id="rId11"/>
-    <sheet name="林恩宏" sheetId="12" r:id="rId12"/>
-    <sheet name="林祐玄" sheetId="13" r:id="rId13"/>
-    <sheet name="王芃元" sheetId="14" r:id="rId14"/>
-    <sheet name="王逸蓁" sheetId="15" r:id="rId15"/>
-    <sheet name="粘耀璟" sheetId="16" r:id="rId16"/>
-    <sheet name="羅然" sheetId="17" r:id="rId17"/>
-    <sheet name="胡之耀" sheetId="18" r:id="rId18"/>
-    <sheet name="許景崴" sheetId="19" r:id="rId19"/>
-    <sheet name="許永暉" sheetId="20" r:id="rId20"/>
-    <sheet name="賴威宏" sheetId="21" r:id="rId21"/>
-    <sheet name="賴聖元" sheetId="22" r:id="rId22"/>
-    <sheet name="鄭伊育" sheetId="23" r:id="rId23"/>
-    <sheet name="鄭名佑" sheetId="24" r:id="rId24"/>
-    <sheet name="陳亮臣" sheetId="25" r:id="rId25"/>
-    <sheet name="陳彥融" sheetId="26" r:id="rId26"/>
-    <sheet name="陳柏宇" sheetId="27" r:id="rId27"/>
-    <sheet name="陳禎" sheetId="28" r:id="rId28"/>
-    <sheet name="顏廷安" sheetId="29" r:id="rId29"/>
+    <sheet name="曾浚傑" sheetId="12" r:id="rId12"/>
+    <sheet name="林恩宏" sheetId="13" r:id="rId13"/>
+    <sheet name="林祐玄" sheetId="14" r:id="rId14"/>
+    <sheet name="梁鎧晟" sheetId="15" r:id="rId15"/>
+    <sheet name="王芃元" sheetId="16" r:id="rId16"/>
+    <sheet name="王逸蓁" sheetId="17" r:id="rId17"/>
+    <sheet name="粘耀璟" sheetId="18" r:id="rId18"/>
+    <sheet name="羅然" sheetId="19" r:id="rId19"/>
+    <sheet name="胡之耀" sheetId="20" r:id="rId20"/>
+    <sheet name="許景崴" sheetId="21" r:id="rId21"/>
+    <sheet name="許永暉" sheetId="22" r:id="rId22"/>
+    <sheet name="賴威宏" sheetId="23" r:id="rId23"/>
+    <sheet name="賴聖元" sheetId="24" r:id="rId24"/>
+    <sheet name="鄭伊育" sheetId="25" r:id="rId25"/>
+    <sheet name="鄭名佑" sheetId="26" r:id="rId26"/>
+    <sheet name="陳亮臣" sheetId="27" r:id="rId27"/>
+    <sheet name="陳彥融" sheetId="28" r:id="rId28"/>
+    <sheet name="陳柏宇" sheetId="29" r:id="rId29"/>
+    <sheet name="陳禎" sheetId="30" r:id="rId30"/>
+    <sheet name="顏廷安" sheetId="31" r:id="rId31"/>
+    <sheet name="黃瑜富" sheetId="32" r:id="rId32"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="94">
   <si>
     <t>日期</t>
   </si>
@@ -77,18 +99,30 @@
     <t>2024/08/06</t>
   </si>
   <si>
+    <t>2024/08/10</t>
+  </si>
+  <si>
     <t>10:00</t>
   </si>
   <si>
     <t>14:00</t>
   </si>
   <si>
+    <t>12:30</t>
+  </si>
+  <si>
     <t>吳恪臣, 廖翊銘, 李品諭, 林品言, 林政諺, 陳泓鍇, 黃鈺程</t>
   </si>
   <si>
     <t>吳恪臣, 廖翊銘, 江學甫, 陳泓鍇, 黃鈺程</t>
   </si>
   <si>
+    <t>吳恪臣, 廖翊銘, 李品諭, 林品言, 陳泓鍇, 黃鈺程</t>
+  </si>
+  <si>
+    <t>林品言</t>
+  </si>
+  <si>
     <t>2024/08/05</t>
   </si>
   <si>
@@ -149,6 +183,12 @@
     <t>陳冠亦, 陳冠辰, 黃睿心</t>
   </si>
   <si>
+    <t>李品諭, 林楷哲, 陳泓均</t>
+  </si>
+  <si>
+    <t>2024/08/09</t>
+  </si>
+  <si>
     <t>13:30</t>
   </si>
   <si>
@@ -164,6 +204,15 @@
     <t>陳言珉</t>
   </si>
   <si>
+    <t>2024/08/04</t>
+  </si>
+  <si>
+    <t>陳泓鍇</t>
+  </si>
+  <si>
+    <t>李品諭, 黃鈺程, 江學甫, 林品言, 吳恪臣, 廖翊銘</t>
+  </si>
+  <si>
     <t>18:00</t>
   </si>
   <si>
@@ -176,15 +225,9 @@
     <t>周劭儒</t>
   </si>
   <si>
-    <t>2024/08/04</t>
-  </si>
-  <si>
     <t>2024/08/07</t>
   </si>
   <si>
-    <t>2024/08/09</t>
-  </si>
-  <si>
     <t>09:00</t>
   </si>
   <si>
@@ -194,6 +237,9 @@
     <t>黃僅佑</t>
   </si>
   <si>
+    <t>19:10</t>
+  </si>
+  <si>
     <t>2024/08/02</t>
   </si>
   <si>
@@ -263,6 +309,12 @@
     <t>廖翊銘, 江學甫, 陳泓均, 陳泓鍇, 黃鈺程</t>
   </si>
   <si>
+    <t>蔣德勳</t>
+  </si>
+  <si>
+    <t>廖翊銘, 李品諭, 江學甫, 陳泓均, 陳泓鍇, 黃鈺程</t>
+  </si>
+  <si>
     <t>19:30</t>
   </si>
   <si>
@@ -288,17 +340,23 @@
   </si>
   <si>
     <t>李品諭, 黃睿心</t>
+  </si>
+  <si>
+    <t>蔡辰澤, 黃紳富, 陳宇翔</t>
+  </si>
+  <si>
+    <t>江洧鋐</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -306,8 +364,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -353,17 +418,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -401,7 +474,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -435,6 +508,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -469,9 +543,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -644,12 +719,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -692,17 +769,18 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -726,13 +804,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -744,18 +822,39 @@
         <v>875</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>-9.5</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>-3325</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -779,13 +878,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -799,13 +898,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>1.5</v>
@@ -822,10 +921,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -842,10 +941,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -857,18 +956,39 @@
         <v>500</v>
       </c>
     </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -892,96 +1012,57 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>2.5</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>750</v>
+        <v>625</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>2.5</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5">
-        <v>2.5</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>750</v>
+        <v>1250</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1005,53 +1086,53 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>500</v>
+        <v>750</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>500</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1065,76 +1146,57 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>500</v>
+        <v>750</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>500</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1158,53 +1220,53 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D2">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>550</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>375</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1216,18 +1278,79 @@
         <v>500</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1251,76 +1374,37 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D2">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3">
-        <v>2.2</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4">
-        <v>2.2</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>550</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1344,216 +1428,77 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>500</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D3">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>625</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D4">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5">
-        <v>0.5</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8">
-        <v>2.5</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10">
-        <v>2.6</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>500</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1577,76 +1522,77 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>500</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>500</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>500</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1670,56 +1616,219 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>750</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3">
         <v>2.5</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4">
+        <v>2.5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8">
+        <v>2.5</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
         <v>750</v>
       </c>
     </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10">
+        <v>2.6</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="173" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1743,36 +1852,77 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>875</v>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1799,10 +1949,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -1819,10 +1969,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>2.5</v>
@@ -1834,18 +1984,59 @@
         <v>1125</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>2.5</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1869,56 +2060,57 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D2">
         <v>2.5</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>625</v>
+        <v>750</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D3">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>550</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1942,36 +2134,37 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D2">
         <v>2.5</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>750</v>
+        <v>875</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1995,36 +2188,57 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D2">
         <v>2.5</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1125</v>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2048,76 +2262,37 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2141,36 +2316,77 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>500</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4">
+        <v>2.5</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>1250</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2194,36 +2410,77 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>875</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2247,13 +2504,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2265,38 +2522,19 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>500</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2320,56 +2558,37 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>500</v>
+        <v>875</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2393,13 +2612,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2413,13 +2632,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2431,118 +2650,21 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>500</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2566,96 +2688,57 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>750</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4">
-        <v>2.5</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5">
-        <v>2.5</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>750</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2679,13 +2762,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2698,17 +2781,445 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2">
+        <v>2.5</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3">
+        <v>2.5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4">
+        <v>2.5</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5">
+        <v>2.5</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6">
+        <v>2.5</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>875</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2732,13 +3243,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -2752,13 +3263,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>2.5</v>
@@ -2775,10 +3286,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -2791,17 +3302,18 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2828,10 +3340,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2843,18 +3355,39 @@
         <v>600</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>2.6</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>780</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2878,13 +3411,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2898,13 +3431,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2921,10 +3454,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -2937,17 +3470,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="157" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2971,13 +3507,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2986,7 +3522,8 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>500</v>
+        <f>D2*E2*300</f>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2994,10 +3531,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3006,18 +3543,19 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>500</v>
+        <f t="shared" ref="F3:F7" si="0">D3*E3*300</f>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -3026,7 +3564,8 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>500</v>
+        <f t="shared" si="0"/>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3034,10 +3573,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -3046,7 +3585,8 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>500</v>
+        <f t="shared" si="0"/>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3054,10 +3594,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -3066,21 +3606,47 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>500</v>
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="171" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -3107,10 +3673,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -3119,7 +3685,8 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>500</v>
+        <f t="shared" ref="F2:F3" si="0">D2*E2*300</f>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3127,10 +3694,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>2.5</v>
@@ -3139,21 +3706,23 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>750</v>
+        <f>D3*(300+50)</f>
+        <v>875</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -3180,10 +3749,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>2.1</v>
@@ -3196,6 +3765,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/老師個別表.xlsx
+++ b/output/老師個別表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/4r/c71wnnys3b1b4p4w0tl_z9q40000gn/T/tmp-16689-rXZIo3gmYYfP/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C113112-4902-7745-94AD-2A2387E1B000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="18960" firstSheet="23" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="何宥嶙" sheetId="1" r:id="rId1"/>
@@ -46,25 +40,12 @@
     <sheet name="顏廷安" sheetId="31" r:id="rId31"/>
     <sheet name="黃瑜富" sheetId="32" r:id="rId32"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="109">
   <si>
     <t>日期</t>
   </si>
@@ -87,12 +68,18 @@
     <t>2024/08/08</t>
   </si>
   <si>
+    <t>2024/08/12</t>
+  </si>
+  <si>
     <t>17:30</t>
   </si>
   <si>
     <t>徐翊豪</t>
   </si>
   <si>
+    <t>邱康齊, 陳冠辰</t>
+  </si>
+  <si>
     <t>2024/08/03</t>
   </si>
   <si>
@@ -102,6 +89,9 @@
     <t>2024/08/10</t>
   </si>
   <si>
+    <t>2024/08/13</t>
+  </si>
+  <si>
     <t>10:00</t>
   </si>
   <si>
@@ -123,15 +113,24 @@
     <t>林品言</t>
   </si>
   <si>
+    <t>吳恪臣, 廖翊銘, 林品言, 江學甫, 陳泓鍇, 黃鈺程</t>
+  </si>
+  <si>
     <t>2024/08/05</t>
   </si>
   <si>
+    <t>2024/08/14</t>
+  </si>
+  <si>
     <t>19:00</t>
   </si>
   <si>
     <t>劉嘉恩</t>
   </si>
   <si>
+    <t>王祐恩</t>
+  </si>
+  <si>
     <t>2024/08/01</t>
   </si>
   <si>
@@ -171,33 +170,51 @@
     <t>15:00</t>
   </si>
   <si>
+    <t>13:30</t>
+  </si>
+  <si>
     <t>謝芷妍</t>
   </si>
   <si>
     <t>侯亭安, 莊珺婷</t>
   </si>
   <si>
+    <t>侯亭安</t>
+  </si>
+  <si>
     <t>林姵岑</t>
   </si>
   <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>05:30</t>
+  </si>
+  <si>
     <t>陳冠亦, 陳冠辰, 黃睿心</t>
   </si>
   <si>
     <t>李品諭, 林楷哲, 陳泓均</t>
   </si>
   <si>
+    <t>黃睿心</t>
+  </si>
+  <si>
+    <t>陳冠亦</t>
+  </si>
+  <si>
     <t>2024/08/09</t>
   </si>
   <si>
-    <t>13:30</t>
-  </si>
-  <si>
     <t>14:30</t>
   </si>
   <si>
     <t>16:00</t>
   </si>
   <si>
+    <t>19:10</t>
+  </si>
+  <si>
     <t>許語恩</t>
   </si>
   <si>
@@ -225,6 +242,9 @@
     <t>周劭儒</t>
   </si>
   <si>
+    <t>李品澔, 周劭儒</t>
+  </si>
+  <si>
     <t>2024/08/07</t>
   </si>
   <si>
@@ -237,9 +257,6 @@
     <t>黃僅佑</t>
   </si>
   <si>
-    <t>19:10</t>
-  </si>
-  <si>
     <t>2024/08/02</t>
   </si>
   <si>
@@ -255,6 +272,9 @@
     <t>13:32</t>
   </si>
   <si>
+    <t>2024/08/15</t>
+  </si>
+  <si>
     <t>16:30</t>
   </si>
   <si>
@@ -264,9 +284,6 @@
     <t>徐康鈞</t>
   </si>
   <si>
-    <t>王祐恩</t>
-  </si>
-  <si>
     <t>包敘恩</t>
   </si>
   <si>
@@ -276,6 +293,9 @@
     <t>朱恩霆</t>
   </si>
   <si>
+    <t>周劭儒, 李品澔</t>
+  </si>
+  <si>
     <t>12:45</t>
   </si>
   <si>
@@ -285,9 +305,6 @@
     <t>陳昱璇</t>
   </si>
   <si>
-    <t>侯亭安</t>
-  </si>
-  <si>
     <t>李品諭, 黃鈺程</t>
   </si>
   <si>
@@ -297,6 +314,9 @@
     <t>黃紳富, 陳宇翔, 蔡辰哲</t>
   </si>
   <si>
+    <t>陳宇翔, 黃紳富, 蔡辰澤</t>
+  </si>
+  <si>
     <t>黃閔詮</t>
   </si>
   <si>
@@ -324,6 +344,12 @@
     <t>陳宇翔, 黃紳富, 蔡辰哲</t>
   </si>
   <si>
+    <t>林楷哲, 陳泓均, 陳宇翔, 黃紳富, 蔡辰澤</t>
+  </si>
+  <si>
+    <t>10:45</t>
+  </si>
+  <si>
     <t>葉宗澔</t>
   </si>
   <si>
@@ -336,13 +362,13 @@
     <t>邱康齊</t>
   </si>
   <si>
-    <t>李品澔, 周劭儒</t>
-  </si>
-  <si>
     <t>李品諭, 黃睿心</t>
   </si>
   <si>
     <t>蔡辰澤, 黃紳富, 陳宇翔</t>
+  </si>
+  <si>
+    <t>朱妙羚, 賴依伶, 黃睿心</t>
   </si>
   <si>
     <t>江洧鋐</t>
@@ -351,12 +377,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -364,15 +390,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -418,25 +437,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -474,7 +485,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -508,7 +519,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -543,10 +553,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -719,14 +728,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -753,10 +760,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -768,19 +775,38 @@
         <v>625</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>2.5</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>750</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -804,13 +830,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -824,37 +850,76 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>-9.5</v>
+        <v>-10</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3">
-        <v>-3325</v>
+        <v>-3500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>2.5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>2.5</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>625</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -878,13 +943,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -898,13 +963,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>1.5</v>
@@ -918,13 +983,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -941,10 +1006,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -958,13 +1023,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -976,19 +1041,58 @@
         <v>500</v>
       </c>
     </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7">
+        <v>1.5</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1012,13 +1116,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -1032,13 +1136,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>2.5</v>
@@ -1051,18 +1155,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1086,13 +1189,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -1106,13 +1209,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>2.5</v>
@@ -1126,13 +1229,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1149,10 +1252,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D5">
         <v>2.5</v>
@@ -1166,13 +1269,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D6">
         <v>2.5</v>
@@ -1184,19 +1287,38 @@
         <v>625</v>
       </c>
     </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>2.5</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>750</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1220,13 +1342,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1240,13 +1362,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1260,13 +1382,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1280,13 +1402,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1303,10 +1425,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1320,37 +1442,56 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>500</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1374,13 +1515,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
         <v>57</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
       </c>
       <c r="D2">
         <v>1.5</v>
@@ -1392,19 +1533,38 @@
         <v>375</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3">
+        <v>1.5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>375</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1428,16 +1588,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D2">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1448,13 +1608,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D3">
         <v>1.5</v>
@@ -1471,10 +1631,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1486,19 +1646,38 @@
         <v>500</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1522,16 +1701,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1542,16 +1721,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D3">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1568,10 +1747,10 @@
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1580,19 +1759,58 @@
         <v>550</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>2.1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6">
+        <v>2.2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>550</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1616,13 +1834,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1636,13 +1854,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D3">
         <v>2.5</v>
@@ -1656,13 +1874,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>2.5</v>
@@ -1676,13 +1894,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>0.5</v>
@@ -1696,13 +1914,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1716,13 +1934,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1736,13 +1954,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D8">
         <v>2.5</v>
@@ -1759,10 +1977,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1779,10 +1997,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D10">
         <v>2.6</v>
@@ -1799,10 +2017,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1814,21 +2032,118 @@
         <v>500</v>
       </c>
     </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13">
+        <v>2.5</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14">
+        <v>2.5</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="173" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1852,13 +2167,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1867,18 +2182,18 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1887,18 +2202,18 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1907,22 +2222,61 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>600</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1946,13 +2300,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -1966,13 +2320,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>2.5</v>
@@ -1986,13 +2340,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>2.5</v>
@@ -2006,13 +2360,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2024,19 +2378,38 @@
         <v>250</v>
       </c>
     </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>2.5</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>1250</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2060,13 +2433,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -2080,13 +2453,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>2.5</v>
@@ -2099,18 +2472,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2134,13 +2506,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -2152,19 +2524,38 @@
         <v>875</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3">
+        <v>2.5</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>875</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2188,13 +2579,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -2208,16 +2599,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D3">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2226,19 +2617,38 @@
         <v>550</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4">
+        <v>2.5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>625</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2262,13 +2672,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -2281,18 +2691,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2316,13 +2725,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -2336,13 +2745,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2356,13 +2765,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D4">
         <v>2.5</v>
@@ -2375,18 +2784,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2410,13 +2818,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2430,13 +2838,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2453,10 +2861,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2468,19 +2876,58 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2504,13 +2951,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2522,19 +2969,38 @@
         <v>500</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2558,13 +3024,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -2576,19 +3042,38 @@
         <v>875</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3">
+        <v>2.5</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>1125</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2612,13 +3097,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2632,13 +3117,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2650,21 +3135,38 @@
         <v>500</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2688,13 +3190,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2703,18 +3205,18 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2723,22 +3225,61 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>600</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4">
+        <v>-10</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>-2500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5">
+        <v>-10</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>-2500</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2762,13 +3303,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2780,21 +3321,58 @@
         <v>500</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>2.5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>625</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2818,13 +3396,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2833,18 +3411,18 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2853,18 +3431,18 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -2873,18 +3451,18 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -2893,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2901,10 +3479,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -2913,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2921,10 +3499,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2933,18 +3511,18 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2953,18 +3531,18 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -2973,23 +3551,21 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -3013,13 +3589,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -3033,13 +3609,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D3">
         <v>2.5</v>
@@ -3053,13 +3629,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D4">
         <v>2.5</v>
@@ -3076,10 +3652,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D5">
         <v>2.5</v>
@@ -3093,13 +3669,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D6">
         <v>2.5</v>
@@ -3111,21 +3687,38 @@
         <v>875</v>
       </c>
     </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7">
+        <v>2.5</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>875</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -3149,13 +3742,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -3169,13 +3762,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3189,13 +3782,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -3208,18 +3801,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -3243,13 +3835,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -3263,13 +3855,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>2.5</v>
@@ -3286,10 +3878,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -3302,18 +3894,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -3337,13 +3928,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -3357,13 +3948,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D3">
         <v>2.6</v>
@@ -3376,18 +3967,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -3411,13 +4001,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -3431,13 +4021,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3454,10 +4044,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -3470,20 +4060,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="157" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -3507,13 +4094,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -3522,19 +4109,18 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f>D2*E2*300</f>
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3543,19 +4129,18 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F7" si="0">D3*E3*300</f>
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -3564,19 +4149,18 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -3585,8 +4169,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3594,10 +4177,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -3606,19 +4189,18 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -3627,26 +4209,61 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>600</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="171" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -3673,10 +4290,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -3685,8 +4302,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F3" si="0">D2*E2*300</f>
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3694,10 +4310,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>2.5</v>
@@ -3706,23 +4322,41 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <f>D3*(300+50)</f>
-        <v>875</v>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -3746,13 +4380,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>2.1</v>
@@ -3765,7 +4399,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/老師個別表.xlsx
+++ b/output/老師個別表.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="117">
   <si>
     <t>日期</t>
   </si>
@@ -71,6 +71,9 @@
     <t>2024/08/12</t>
   </si>
   <si>
+    <t>2024/08/15</t>
+  </si>
+  <si>
     <t>17:30</t>
   </si>
   <si>
@@ -80,6 +83,9 @@
     <t>邱康齊, 陳冠辰</t>
   </si>
   <si>
+    <t>徐翊豪, 黃睿心</t>
+  </si>
+  <si>
     <t>2024/08/03</t>
   </si>
   <si>
@@ -149,6 +155,9 @@
     <t>19:40</t>
   </si>
   <si>
+    <t>18:40</t>
+  </si>
+  <si>
     <t>伍騏蔚</t>
   </si>
   <si>
@@ -191,6 +200,9 @@
     <t>05:30</t>
   </si>
   <si>
+    <t>15:30</t>
+  </si>
+  <si>
     <t>陳冠亦, 陳冠辰, 黃睿心</t>
   </si>
   <si>
@@ -203,6 +215,9 @@
     <t>陳冠亦</t>
   </si>
   <si>
+    <t>賴依伶</t>
+  </si>
+  <si>
     <t>2024/08/09</t>
   </si>
   <si>
@@ -245,6 +260,9 @@
     <t>李品澔, 周劭儒</t>
   </si>
   <si>
+    <t>林楷哲, 李品澔</t>
+  </si>
+  <si>
     <t>2024/08/07</t>
   </si>
   <si>
@@ -269,15 +287,21 @@
     <t>廖宥翔</t>
   </si>
   <si>
+    <t>陳冠辰</t>
+  </si>
+  <si>
     <t>13:32</t>
   </si>
   <si>
-    <t>2024/08/15</t>
-  </si>
-  <si>
     <t>16:30</t>
   </si>
   <si>
+    <t>02:00</t>
+  </si>
+  <si>
+    <t>14:45</t>
+  </si>
+  <si>
     <t>江嘉祐</t>
   </si>
   <si>
@@ -299,9 +323,6 @@
     <t>12:45</t>
   </si>
   <si>
-    <t>14:45</t>
-  </si>
-  <si>
     <t>陳昱璇</t>
   </si>
   <si>
@@ -311,6 +332,9 @@
     <t>陳泓均, 李品澔</t>
   </si>
   <si>
+    <t>朱妙羚, 李品諭</t>
+  </si>
+  <si>
     <t>黃紳富, 陳宇翔, 蔡辰哲</t>
   </si>
   <si>
@@ -326,6 +350,9 @@
     <t>吳恪臣, 朱妙羚</t>
   </si>
   <si>
+    <t>吳恪臣, 李品諭</t>
+  </si>
+  <si>
     <t>廖翊銘, 江學甫, 陳泓均, 陳泓鍇, 黃鈺程</t>
   </si>
   <si>
@@ -336,9 +363,6 @@
   </si>
   <si>
     <t>19:30</t>
-  </si>
-  <si>
-    <t>18:40</t>
   </si>
   <si>
     <t>陳宇翔, 黃紳富, 蔡辰哲</t>
@@ -729,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -760,10 +784,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -780,10 +804,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>2.5</v>
@@ -793,6 +817,26 @@
       </c>
       <c r="F3">
         <v>750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>2.8</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -802,7 +846,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -830,13 +874,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -850,13 +894,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D3">
         <v>-10</v>
@@ -873,10 +917,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>2.5</v>
@@ -893,10 +937,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>2.5</v>
@@ -906,6 +950,26 @@
       </c>
       <c r="F5">
         <v>625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6">
+        <v>1.5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -943,13 +1007,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -963,13 +1027,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <v>1.5</v>
@@ -983,13 +1047,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1006,10 +1070,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1023,13 +1087,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1046,10 +1110,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D7">
         <v>1.5</v>
@@ -1063,13 +1127,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1116,13 +1180,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -1136,13 +1200,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D3">
         <v>2.5</v>
@@ -1161,7 +1225,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1189,13 +1253,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -1209,13 +1273,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D3">
         <v>2.5</v>
@@ -1229,13 +1293,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1252,10 +1316,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D5">
         <v>2.5</v>
@@ -1269,13 +1333,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D6">
         <v>2.5</v>
@@ -1292,10 +1356,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D7">
         <v>2.5</v>
@@ -1304,6 +1368,26 @@
         <v>2</v>
       </c>
       <c r="F7">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8">
+        <v>2.5</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
         <v>750</v>
       </c>
     </row>
@@ -1342,13 +1426,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1362,13 +1446,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1382,13 +1466,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1402,13 +1486,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1425,10 +1509,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1442,13 +1526,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1462,13 +1546,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1515,13 +1599,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>1.5</v>
@@ -1535,13 +1619,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <v>1.5</v>
@@ -1559,119 +1643,6 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2">
-        <v>2.2</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3">
-        <v>1.5</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>500</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -1701,13 +1672,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D2">
         <v>2.2</v>
@@ -1721,22 +1692,22 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D3">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>550</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1744,59 +1715,59 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D4">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>550</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D5">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>525</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>550</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -1804,9 +1775,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1834,33 +1805,186 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>500</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3">
+        <v>2.2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4">
+        <v>2.2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5">
+        <v>2.1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6">
+        <v>2.2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7">
+        <v>2.1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>525</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D3">
         <v>2.5</v>
@@ -1874,13 +1998,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D4">
         <v>2.5</v>
@@ -1894,13 +2018,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>0.5</v>
@@ -1914,13 +2038,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1934,13 +2058,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1954,13 +2078,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D8">
         <v>2.5</v>
@@ -1977,10 +2101,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1997,10 +2121,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D10">
         <v>2.6</v>
@@ -2017,10 +2141,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -2037,10 +2161,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -2054,13 +2178,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D13">
         <v>2.5</v>
@@ -2074,13 +2198,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D14">
         <v>2.5</v>
@@ -2094,13 +2218,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -2114,22 +2238,62 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>500</v>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18">
+        <v>2.2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -2167,13 +2331,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2182,18 +2346,18 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2202,18 +2366,18 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -2222,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2230,10 +2394,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -2242,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2250,10 +2414,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -2262,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -2300,13 +2464,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -2320,13 +2484,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>2.5</v>
@@ -2340,13 +2504,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>2.5</v>
@@ -2360,13 +2524,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2380,13 +2544,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>2.5</v>
@@ -2405,7 +2569,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2433,13 +2597,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -2453,13 +2617,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D3">
         <v>2.5</v>
@@ -2468,6 +2632,26 @@
         <v>2</v>
       </c>
       <c r="F3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4">
+        <v>2.5</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
         <v>750</v>
       </c>
     </row>
@@ -2506,13 +2690,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -2526,13 +2710,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D3">
         <v>2.5</v>
@@ -2579,13 +2763,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -2599,13 +2783,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D3">
         <v>2.2</v>
@@ -2619,13 +2803,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D4">
         <v>2.5</v>
@@ -2644,7 +2828,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2672,13 +2856,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -2687,6 +2871,26 @@
         <v>2</v>
       </c>
       <c r="F2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3">
+        <v>2.5</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
         <v>750</v>
       </c>
     </row>
@@ -2725,13 +2929,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -2740,18 +2944,18 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>1125</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2760,18 +2964,18 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D4">
         <v>2.5</v>
@@ -2780,7 +2984,7 @@
         <v>6</v>
       </c>
       <c r="F4">
-        <v>1250</v>
+        <v>1125</v>
       </c>
     </row>
   </sheetData>
@@ -2790,7 +2994,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2818,13 +3022,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2838,13 +3042,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2861,10 +3065,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2881,10 +3085,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -2898,13 +3102,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -2913,6 +3117,26 @@
         <v>1</v>
       </c>
       <c r="F6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>500</v>
       </c>
     </row>
@@ -2951,13 +3175,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2966,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>500</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2974,10 +3198,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2986,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>500</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -3024,13 +3248,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -3044,13 +3268,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D3">
         <v>2.5</v>
@@ -3097,13 +3321,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -3117,13 +3341,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3137,13 +3361,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -3190,13 +3414,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -3210,13 +3434,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3230,42 +3454,42 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>-2500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D5">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>-2500</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -3303,13 +3527,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -3323,13 +3547,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3343,13 +3567,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>2.5</v>
@@ -3368,7 +3592,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3396,13 +3620,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -3416,13 +3640,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3436,13 +3660,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -3456,13 +3680,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -3479,10 +3703,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -3499,10 +3723,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -3516,13 +3740,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -3536,13 +3760,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -3551,6 +3775,46 @@
         <v>1</v>
       </c>
       <c r="F9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>500</v>
       </c>
     </row>
@@ -3589,13 +3853,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -3609,13 +3873,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D3">
         <v>2.5</v>
@@ -3629,13 +3893,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D4">
         <v>2.5</v>
@@ -3652,10 +3916,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D5">
         <v>2.5</v>
@@ -3669,13 +3933,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D6">
         <v>2.5</v>
@@ -3689,13 +3953,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D7">
         <v>2.5</v>
@@ -3742,13 +4006,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -3762,13 +4026,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3782,13 +4046,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -3807,7 +4071,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3835,13 +4099,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -3850,18 +4114,18 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>625</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>2.5</v>
@@ -3870,7 +4134,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>875</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3878,10 +4142,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -3890,7 +4154,27 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>500</v>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>2.5</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -3928,13 +4212,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -3948,13 +4232,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>2.6</v>
@@ -3973,7 +4257,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4001,13 +4285,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -4021,13 +4305,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4044,10 +4328,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -4056,6 +4340,46 @@
         <v>1</v>
       </c>
       <c r="F4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>500</v>
       </c>
     </row>
@@ -4066,7 +4390,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4094,13 +4418,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -4114,13 +4438,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -4134,13 +4458,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -4154,13 +4478,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -4177,10 +4501,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -4194,13 +4518,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -4217,10 +4541,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -4234,13 +4558,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -4249,6 +4573,26 @@
         <v>1</v>
       </c>
       <c r="F9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>500</v>
       </c>
     </row>
@@ -4259,7 +4603,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4290,10 +4634,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -4302,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4310,10 +4654,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>2.5</v>
@@ -4322,18 +4666,18 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>750</v>
+        <v>875</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -4342,7 +4686,27 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>500</v>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -4380,13 +4744,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D2">
         <v>2.1</v>
